--- a/results.xlsx
+++ b/results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Major Project\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EDA4A8-8C5D-4876-9B80-62BCDF05F15E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F60F837-D1D6-4B5C-AF7D-AE5B6B5CC154}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Roll Number</t>
   </si>
@@ -84,13 +84,157 @@
     <t>sem7</t>
   </si>
   <si>
-    <t>sem8</t>
-  </si>
-  <si>
-    <t>20BQ1A1288</t>
-  </si>
-  <si>
-    <t>20BQ1A12B9</t>
+    <t>20BQ1A1210</t>
+  </si>
+  <si>
+    <t>20BQ1A1211</t>
+  </si>
+  <si>
+    <t>20BQ1A1212</t>
+  </si>
+  <si>
+    <t>20BQ1A1213</t>
+  </si>
+  <si>
+    <t>20BQ1A1214</t>
+  </si>
+  <si>
+    <t>20BQ1A1215</t>
+  </si>
+  <si>
+    <t>20BQ1A1216</t>
+  </si>
+  <si>
+    <t>20BQ1A1217</t>
+  </si>
+  <si>
+    <t>20BQ1A1218</t>
+  </si>
+  <si>
+    <t>20BQ1A1219</t>
+  </si>
+  <si>
+    <t>20BQ1A1220</t>
+  </si>
+  <si>
+    <t>20BQ1A1221</t>
+  </si>
+  <si>
+    <t>20BQ1A1222</t>
+  </si>
+  <si>
+    <t>20BQ1A1223</t>
+  </si>
+  <si>
+    <t>20BQ1A1224</t>
+  </si>
+  <si>
+    <t>20BQ1A1225</t>
+  </si>
+  <si>
+    <t>20BQ1A1226</t>
+  </si>
+  <si>
+    <t>20BQ1A1227</t>
+  </si>
+  <si>
+    <t>20BQ1A1228</t>
+  </si>
+  <si>
+    <t>20BQ1A1229</t>
+  </si>
+  <si>
+    <t>20BQ1A1230</t>
+  </si>
+  <si>
+    <t>20BQ1A1231</t>
+  </si>
+  <si>
+    <t>20BQ1A1232</t>
+  </si>
+  <si>
+    <t>20BQ1A1233</t>
+  </si>
+  <si>
+    <t>20BQ1A1234</t>
+  </si>
+  <si>
+    <t>20BQ1A1235</t>
+  </si>
+  <si>
+    <t>20BQ1A1236</t>
+  </si>
+  <si>
+    <t>20BQ1A1237</t>
+  </si>
+  <si>
+    <t>20BQ1A1238</t>
+  </si>
+  <si>
+    <t>20BQ1A1239</t>
+  </si>
+  <si>
+    <t>20BQ1A1240</t>
+  </si>
+  <si>
+    <t>20BQ1A1241</t>
+  </si>
+  <si>
+    <t>20BQ1A1242</t>
+  </si>
+  <si>
+    <t>20BQ1A1243</t>
+  </si>
+  <si>
+    <t>20BQ1A1244</t>
+  </si>
+  <si>
+    <t>20BQ1A1245</t>
+  </si>
+  <si>
+    <t>20BQ1A1246</t>
+  </si>
+  <si>
+    <t>20BQ1A1247</t>
+  </si>
+  <si>
+    <t>20BQ1A1248</t>
+  </si>
+  <si>
+    <t>20BQ1A1249</t>
+  </si>
+  <si>
+    <t>20BQ1A1250</t>
+  </si>
+  <si>
+    <t>20BQ1A1251</t>
+  </si>
+  <si>
+    <t>20BQ1A1252</t>
+  </si>
+  <si>
+    <t>20BQ1A1253</t>
+  </si>
+  <si>
+    <t>20BQ1A1254</t>
+  </si>
+  <si>
+    <t>20BQ1A1255</t>
+  </si>
+  <si>
+    <t>20BQ1A1256</t>
+  </si>
+  <si>
+    <t>20BQ1A1257</t>
+  </si>
+  <si>
+    <t>20BQ1A1258</t>
+  </si>
+  <si>
+    <t>20BQ1A1259</t>
+  </si>
+  <si>
+    <t>20BQ1A1260</t>
   </si>
 </sst>
 </file>
@@ -408,20 +552,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.109375" customWidth="1"/>
     <col min="2" max="2" width="7.44140625" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,16 +591,13 @@
         <v>18</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -482,16 +623,13 @@
         <v>9.35</v>
       </c>
       <c r="I2">
-        <v>9.4</v>
+        <v>9.75</v>
       </c>
       <c r="J2">
-        <v>9.75</v>
-      </c>
-      <c r="K2">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -517,16 +655,13 @@
         <v>7.89</v>
       </c>
       <c r="I3">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="J3">
-        <v>8.25</v>
-      </c>
-      <c r="K3">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -552,16 +687,13 @@
         <v>9</v>
       </c>
       <c r="I4">
-        <v>9.23</v>
+        <v>9</v>
       </c>
       <c r="J4">
-        <v>9</v>
-      </c>
-      <c r="K4">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -587,16 +719,13 @@
         <v>6.89</v>
       </c>
       <c r="I5">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J5">
-        <v>7.5</v>
-      </c>
-      <c r="K5">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -622,16 +751,13 @@
         <v>7.2</v>
       </c>
       <c r="I6">
-        <v>7.12</v>
+        <v>6.95</v>
       </c>
       <c r="J6">
-        <v>6.95</v>
-      </c>
-      <c r="K6">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -657,16 +783,13 @@
         <v>7.1</v>
       </c>
       <c r="I7">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="J7">
-        <v>7.5</v>
-      </c>
-      <c r="K7">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -692,16 +815,13 @@
         <v>5</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="J8">
-        <v>5.2</v>
-      </c>
-      <c r="K8">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -727,16 +847,13 @@
         <v>6</v>
       </c>
       <c r="I9">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="J9">
-        <v>6.1</v>
-      </c>
-      <c r="K9">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -762,82 +879,1641 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="I10">
-        <v>8.8000000000000007</v>
+        <v>8.5</v>
       </c>
       <c r="J10">
-        <v>8.5</v>
-      </c>
-      <c r="K10">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>9.23</v>
+        <v>8.9</v>
       </c>
       <c r="C11">
-        <v>9.23</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>8.56</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E11">
-        <v>8.6</v>
+        <v>8.99</v>
       </c>
       <c r="F11">
-        <v>8.19</v>
+        <v>9.09</v>
       </c>
       <c r="G11">
         <v>9.23</v>
       </c>
       <c r="H11">
-        <v>8.6999999999999993</v>
+        <v>9.35</v>
       </c>
       <c r="I11">
-        <v>8.5</v>
+        <v>9.75</v>
       </c>
       <c r="J11">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="K11">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D12">
+        <v>7.9</v>
+      </c>
+      <c r="E12">
+        <v>8.6</v>
+      </c>
+      <c r="F12">
+        <v>8.9</v>
+      </c>
+      <c r="G12">
+        <v>7.9</v>
+      </c>
+      <c r="H12">
+        <v>7.89</v>
+      </c>
+      <c r="I12">
+        <v>8.25</v>
+      </c>
+      <c r="J12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>8.9</v>
+      </c>
+      <c r="D13">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E13">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F13">
+        <v>9.1</v>
+      </c>
+      <c r="G13">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H13">
+        <v>9</v>
+      </c>
+      <c r="I13">
+        <v>9</v>
+      </c>
+      <c r="J13">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>6.8</v>
+      </c>
+      <c r="D14">
+        <v>7.2</v>
+      </c>
+      <c r="E14">
+        <v>7.5</v>
+      </c>
+      <c r="F14">
+        <v>7.34</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="H14">
+        <v>6.89</v>
+      </c>
+      <c r="I14">
+        <v>7.5</v>
+      </c>
+      <c r="J14">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>7.2</v>
+      </c>
+      <c r="D15">
+        <v>7.13</v>
+      </c>
+      <c r="E15">
+        <v>6.8</v>
+      </c>
+      <c r="F15">
+        <v>6.9</v>
+      </c>
+      <c r="G15">
+        <v>6.89</v>
+      </c>
+      <c r="H15">
+        <v>7.2</v>
+      </c>
+      <c r="I15">
+        <v>6.95</v>
+      </c>
+      <c r="J15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>7.6</v>
+      </c>
+      <c r="E16">
+        <v>6.8</v>
+      </c>
+      <c r="F16">
+        <v>6.9</v>
+      </c>
+      <c r="G16">
+        <v>7.7</v>
+      </c>
+      <c r="H16">
+        <v>7.1</v>
+      </c>
+      <c r="I16">
+        <v>7.5</v>
+      </c>
+      <c r="J16">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="C17">
+        <v>4.7</v>
+      </c>
+      <c r="D17">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E17">
+        <v>4.8</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>5.2</v>
+      </c>
+      <c r="J17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>5.9</v>
+      </c>
+      <c r="E18">
+        <v>6.2</v>
+      </c>
+      <c r="F18">
+        <v>5.7</v>
+      </c>
+      <c r="G18">
+        <v>5.78</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+      <c r="I18">
+        <v>6.1</v>
+      </c>
+      <c r="J18">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>8.23</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>7.9</v>
+      </c>
+      <c r="E19">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F19">
+        <v>8.6</v>
+      </c>
+      <c r="G19">
+        <v>8.4</v>
+      </c>
+      <c r="H19">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I19">
+        <v>8.5</v>
+      </c>
+      <c r="J19">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>9.23</v>
+      </c>
+      <c r="C20">
+        <v>9.23</v>
+      </c>
+      <c r="D20">
+        <v>8.56</v>
+      </c>
+      <c r="E20">
+        <v>8.6</v>
+      </c>
+      <c r="F20">
+        <v>8.19</v>
+      </c>
+      <c r="G20">
+        <v>9.23</v>
+      </c>
+      <c r="H20">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I20">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
         <v>6.54</v>
       </c>
-      <c r="C12">
+      <c r="C21">
         <v>6.85</v>
       </c>
-      <c r="D12">
+      <c r="D21">
         <v>6.67</v>
       </c>
-      <c r="E12">
+      <c r="E21">
         <v>6.53</v>
       </c>
-      <c r="F12">
+      <c r="F21">
         <v>6.81</v>
       </c>
-      <c r="G12">
+      <c r="G21">
         <v>7.7</v>
       </c>
-      <c r="H12">
+      <c r="H21">
         <v>7.83</v>
       </c>
-      <c r="I12">
-        <v>7.8</v>
-      </c>
-      <c r="J12">
-        <v>7</v>
-      </c>
-      <c r="K12">
+      <c r="I21">
+        <v>7</v>
+      </c>
+      <c r="J21">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>8.9</v>
+      </c>
+      <c r="C22">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E22">
+        <v>8.99</v>
+      </c>
+      <c r="F22">
+        <v>9.09</v>
+      </c>
+      <c r="G22">
+        <v>9.23</v>
+      </c>
+      <c r="H22">
+        <v>9.35</v>
+      </c>
+      <c r="I22">
+        <v>9.75</v>
+      </c>
+      <c r="J22">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D23">
+        <v>7.9</v>
+      </c>
+      <c r="E23">
+        <v>8.6</v>
+      </c>
+      <c r="F23">
+        <v>8.9</v>
+      </c>
+      <c r="G23">
+        <v>7.9</v>
+      </c>
+      <c r="H23">
+        <v>7.89</v>
+      </c>
+      <c r="I23">
+        <v>8.25</v>
+      </c>
+      <c r="J23">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>8.9</v>
+      </c>
+      <c r="D24">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E24">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F24">
+        <v>9.1</v>
+      </c>
+      <c r="G24">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H24">
+        <v>9</v>
+      </c>
+      <c r="I24">
+        <v>9</v>
+      </c>
+      <c r="J24">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>6.8</v>
+      </c>
+      <c r="D25">
+        <v>7.2</v>
+      </c>
+      <c r="E25">
+        <v>7.5</v>
+      </c>
+      <c r="F25">
+        <v>7.34</v>
+      </c>
+      <c r="G25">
+        <v>7</v>
+      </c>
+      <c r="H25">
+        <v>6.89</v>
+      </c>
+      <c r="I25">
+        <v>7.5</v>
+      </c>
+      <c r="J25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>7.2</v>
+      </c>
+      <c r="D26">
+        <v>7.13</v>
+      </c>
+      <c r="E26">
+        <v>6.8</v>
+      </c>
+      <c r="F26">
+        <v>6.9</v>
+      </c>
+      <c r="G26">
+        <v>6.89</v>
+      </c>
+      <c r="H26">
+        <v>7.2</v>
+      </c>
+      <c r="I26">
+        <v>6.95</v>
+      </c>
+      <c r="J26">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>7.6</v>
+      </c>
+      <c r="E27">
+        <v>6.8</v>
+      </c>
+      <c r="F27">
+        <v>6.9</v>
+      </c>
+      <c r="G27">
+        <v>7.7</v>
+      </c>
+      <c r="H27">
+        <v>7.1</v>
+      </c>
+      <c r="I27">
+        <v>7.5</v>
+      </c>
+      <c r="J27">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="C28">
+        <v>4.7</v>
+      </c>
+      <c r="D28">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E28">
+        <v>4.8</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>5.2</v>
+      </c>
+      <c r="J28">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>5.9</v>
+      </c>
+      <c r="E29">
+        <v>6.2</v>
+      </c>
+      <c r="F29">
+        <v>5.7</v>
+      </c>
+      <c r="G29">
+        <v>5.78</v>
+      </c>
+      <c r="H29">
+        <v>6</v>
+      </c>
+      <c r="I29">
+        <v>6.1</v>
+      </c>
+      <c r="J29">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>8.23</v>
+      </c>
+      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>7.9</v>
+      </c>
+      <c r="E30">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F30">
+        <v>8.6</v>
+      </c>
+      <c r="G30">
+        <v>8.4</v>
+      </c>
+      <c r="H30">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I30">
+        <v>8.5</v>
+      </c>
+      <c r="J30">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>8.9</v>
+      </c>
+      <c r="C31">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E31">
+        <v>8.99</v>
+      </c>
+      <c r="F31">
+        <v>9.09</v>
+      </c>
+      <c r="G31">
+        <v>9.23</v>
+      </c>
+      <c r="H31">
+        <v>9.35</v>
+      </c>
+      <c r="I31">
+        <v>9.75</v>
+      </c>
+      <c r="J31">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D32">
+        <v>7.9</v>
+      </c>
+      <c r="E32">
+        <v>8.6</v>
+      </c>
+      <c r="F32">
+        <v>8.9</v>
+      </c>
+      <c r="G32">
+        <v>7.9</v>
+      </c>
+      <c r="H32">
+        <v>7.89</v>
+      </c>
+      <c r="I32">
+        <v>8.25</v>
+      </c>
+      <c r="J32">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>8.9</v>
+      </c>
+      <c r="D33">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E33">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F33">
+        <v>9.1</v>
+      </c>
+      <c r="G33">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H33">
+        <v>9</v>
+      </c>
+      <c r="I33">
+        <v>9</v>
+      </c>
+      <c r="J33">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>6.8</v>
+      </c>
+      <c r="D34">
+        <v>7.2</v>
+      </c>
+      <c r="E34">
+        <v>7.5</v>
+      </c>
+      <c r="F34">
+        <v>7.34</v>
+      </c>
+      <c r="G34">
+        <v>7</v>
+      </c>
+      <c r="H34">
+        <v>6.89</v>
+      </c>
+      <c r="I34">
+        <v>7.5</v>
+      </c>
+      <c r="J34">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>7.2</v>
+      </c>
+      <c r="D35">
+        <v>7.13</v>
+      </c>
+      <c r="E35">
+        <v>6.8</v>
+      </c>
+      <c r="F35">
+        <v>6.9</v>
+      </c>
+      <c r="G35">
+        <v>6.89</v>
+      </c>
+      <c r="H35">
+        <v>7.2</v>
+      </c>
+      <c r="I35">
+        <v>6.95</v>
+      </c>
+      <c r="J35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>7.6</v>
+      </c>
+      <c r="E36">
+        <v>6.8</v>
+      </c>
+      <c r="F36">
+        <v>6.9</v>
+      </c>
+      <c r="G36">
+        <v>7.7</v>
+      </c>
+      <c r="H36">
+        <v>7.1</v>
+      </c>
+      <c r="I36">
+        <v>7.5</v>
+      </c>
+      <c r="J36">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="C37">
+        <v>4.7</v>
+      </c>
+      <c r="D37">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E37">
+        <v>4.8</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37">
+        <v>5</v>
+      </c>
+      <c r="I37">
+        <v>5.2</v>
+      </c>
+      <c r="J37">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>5.9</v>
+      </c>
+      <c r="E38">
+        <v>6.2</v>
+      </c>
+      <c r="F38">
+        <v>5.7</v>
+      </c>
+      <c r="G38">
+        <v>5.78</v>
+      </c>
+      <c r="H38">
+        <v>6</v>
+      </c>
+      <c r="I38">
+        <v>6.1</v>
+      </c>
+      <c r="J38">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>8.23</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>7.9</v>
+      </c>
+      <c r="E39">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F39">
+        <v>8.6</v>
+      </c>
+      <c r="G39">
+        <v>8.4</v>
+      </c>
+      <c r="H39">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I39">
+        <v>8.5</v>
+      </c>
+      <c r="J39">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>9.23</v>
+      </c>
+      <c r="C40">
+        <v>9.23</v>
+      </c>
+      <c r="D40">
+        <v>8.56</v>
+      </c>
+      <c r="E40">
+        <v>8.6</v>
+      </c>
+      <c r="F40">
+        <v>8.19</v>
+      </c>
+      <c r="G40">
+        <v>9.23</v>
+      </c>
+      <c r="H40">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I40">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J40">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>6.54</v>
+      </c>
+      <c r="C41">
+        <v>6.85</v>
+      </c>
+      <c r="D41">
+        <v>6.67</v>
+      </c>
+      <c r="E41">
+        <v>6.53</v>
+      </c>
+      <c r="F41">
+        <v>6.81</v>
+      </c>
+      <c r="G41">
+        <v>7.7</v>
+      </c>
+      <c r="H41">
+        <v>7.83</v>
+      </c>
+      <c r="I41">
+        <v>7</v>
+      </c>
+      <c r="J41">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>8.9</v>
+      </c>
+      <c r="C42">
+        <v>9</v>
+      </c>
+      <c r="D42">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E42">
+        <v>8.99</v>
+      </c>
+      <c r="F42">
+        <v>9.09</v>
+      </c>
+      <c r="G42">
+        <v>9.23</v>
+      </c>
+      <c r="H42">
+        <v>9.35</v>
+      </c>
+      <c r="I42">
+        <v>9.75</v>
+      </c>
+      <c r="J42">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D43">
+        <v>7.9</v>
+      </c>
+      <c r="E43">
+        <v>8.6</v>
+      </c>
+      <c r="F43">
+        <v>8.9</v>
+      </c>
+      <c r="G43">
+        <v>7.9</v>
+      </c>
+      <c r="H43">
+        <v>7.89</v>
+      </c>
+      <c r="I43">
+        <v>8.25</v>
+      </c>
+      <c r="J43">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>8.9</v>
+      </c>
+      <c r="D44">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E44">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F44">
+        <v>9.1</v>
+      </c>
+      <c r="G44">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H44">
+        <v>9</v>
+      </c>
+      <c r="I44">
+        <v>9</v>
+      </c>
+      <c r="J44">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>6.8</v>
+      </c>
+      <c r="D45">
+        <v>7.2</v>
+      </c>
+      <c r="E45">
+        <v>7.5</v>
+      </c>
+      <c r="F45">
+        <v>7.34</v>
+      </c>
+      <c r="G45">
+        <v>7</v>
+      </c>
+      <c r="H45">
+        <v>6.89</v>
+      </c>
+      <c r="I45">
+        <v>7.5</v>
+      </c>
+      <c r="J45">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>7.2</v>
+      </c>
+      <c r="D46">
+        <v>7.13</v>
+      </c>
+      <c r="E46">
+        <v>6.8</v>
+      </c>
+      <c r="F46">
+        <v>6.9</v>
+      </c>
+      <c r="G46">
+        <v>6.89</v>
+      </c>
+      <c r="H46">
+        <v>7.2</v>
+      </c>
+      <c r="I46">
+        <v>6.95</v>
+      </c>
+      <c r="J46">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>7.6</v>
+      </c>
+      <c r="E47">
+        <v>6.8</v>
+      </c>
+      <c r="F47">
+        <v>6.9</v>
+      </c>
+      <c r="G47">
+        <v>7.7</v>
+      </c>
+      <c r="H47">
+        <v>7.1</v>
+      </c>
+      <c r="I47">
+        <v>7.5</v>
+      </c>
+      <c r="J47">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="C48">
+        <v>4.7</v>
+      </c>
+      <c r="D48">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E48">
+        <v>4.8</v>
+      </c>
+      <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="G48">
+        <v>5</v>
+      </c>
+      <c r="H48">
+        <v>5</v>
+      </c>
+      <c r="I48">
+        <v>5.2</v>
+      </c>
+      <c r="J48">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <v>6</v>
+      </c>
+      <c r="D49">
+        <v>5.9</v>
+      </c>
+      <c r="E49">
+        <v>6.2</v>
+      </c>
+      <c r="F49">
+        <v>5.7</v>
+      </c>
+      <c r="G49">
+        <v>5.78</v>
+      </c>
+      <c r="H49">
+        <v>6</v>
+      </c>
+      <c r="I49">
+        <v>6.1</v>
+      </c>
+      <c r="J49">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
+        <v>8.23</v>
+      </c>
+      <c r="C50">
+        <v>8</v>
+      </c>
+      <c r="D50">
+        <v>7.9</v>
+      </c>
+      <c r="E50">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F50">
+        <v>8.6</v>
+      </c>
+      <c r="G50">
+        <v>8.4</v>
+      </c>
+      <c r="H50">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I50">
+        <v>8.5</v>
+      </c>
+      <c r="J50">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
+        <v>8.9</v>
+      </c>
+      <c r="C51">
+        <v>9</v>
+      </c>
+      <c r="D51">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E51">
+        <v>8.99</v>
+      </c>
+      <c r="F51">
+        <v>9.09</v>
+      </c>
+      <c r="G51">
+        <v>9.23</v>
+      </c>
+      <c r="H51">
+        <v>9.35</v>
+      </c>
+      <c r="I51">
+        <v>9.75</v>
+      </c>
+      <c r="J51">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
+        <v>8</v>
+      </c>
+      <c r="C52">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D52">
+        <v>7.9</v>
+      </c>
+      <c r="E52">
+        <v>8.6</v>
+      </c>
+      <c r="F52">
+        <v>8.9</v>
+      </c>
+      <c r="G52">
+        <v>7.9</v>
+      </c>
+      <c r="H52">
+        <v>7.89</v>
+      </c>
+      <c r="I52">
+        <v>8.25</v>
+      </c>
+      <c r="J52">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53">
+        <v>9</v>
+      </c>
+      <c r="C53">
+        <v>8.9</v>
+      </c>
+      <c r="D53">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E53">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F53">
+        <v>9.1</v>
+      </c>
+      <c r="G53">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H53">
+        <v>9</v>
+      </c>
+      <c r="I53">
+        <v>9</v>
+      </c>
+      <c r="J53">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54">
+        <v>7</v>
+      </c>
+      <c r="C54">
+        <v>6.8</v>
+      </c>
+      <c r="D54">
+        <v>7.2</v>
+      </c>
+      <c r="E54">
+        <v>7.5</v>
+      </c>
+      <c r="F54">
+        <v>7.34</v>
+      </c>
+      <c r="G54">
+        <v>7</v>
+      </c>
+      <c r="H54">
+        <v>6.89</v>
+      </c>
+      <c r="I54">
+        <v>7.5</v>
+      </c>
+      <c r="J54">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55">
+        <v>7</v>
+      </c>
+      <c r="C55">
+        <v>7.2</v>
+      </c>
+      <c r="D55">
+        <v>7.13</v>
+      </c>
+      <c r="E55">
+        <v>6.8</v>
+      </c>
+      <c r="F55">
+        <v>6.9</v>
+      </c>
+      <c r="G55">
+        <v>6.89</v>
+      </c>
+      <c r="H55">
+        <v>7.2</v>
+      </c>
+      <c r="I55">
+        <v>6.95</v>
+      </c>
+      <c r="J55">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56">
+        <v>7</v>
+      </c>
+      <c r="C56">
+        <v>7</v>
+      </c>
+      <c r="D56">
+        <v>7.6</v>
+      </c>
+      <c r="E56">
+        <v>6.8</v>
+      </c>
+      <c r="F56">
+        <v>6.9</v>
+      </c>
+      <c r="G56">
+        <v>7.7</v>
+      </c>
+      <c r="H56">
+        <v>7.1</v>
+      </c>
+      <c r="I56">
+        <v>7.5</v>
+      </c>
+      <c r="J56">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="C57">
+        <v>4.7</v>
+      </c>
+      <c r="D57">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E57">
+        <v>4.8</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+      <c r="G57">
+        <v>5</v>
+      </c>
+      <c r="H57">
+        <v>5</v>
+      </c>
+      <c r="I57">
+        <v>5.2</v>
+      </c>
+      <c r="J57">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>6</v>
+      </c>
+      <c r="D58">
+        <v>5.9</v>
+      </c>
+      <c r="E58">
+        <v>6.2</v>
+      </c>
+      <c r="F58">
+        <v>5.7</v>
+      </c>
+      <c r="G58">
+        <v>5.78</v>
+      </c>
+      <c r="H58">
+        <v>6</v>
+      </c>
+      <c r="I58">
+        <v>6.1</v>
+      </c>
+      <c r="J58">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59">
+        <v>8.23</v>
+      </c>
+      <c r="C59">
+        <v>8</v>
+      </c>
+      <c r="D59">
+        <v>7.9</v>
+      </c>
+      <c r="E59">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F59">
+        <v>8.6</v>
+      </c>
+      <c r="G59">
+        <v>8.4</v>
+      </c>
+      <c r="H59">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I59">
+        <v>8.5</v>
+      </c>
+      <c r="J59">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60">
+        <v>9.23</v>
+      </c>
+      <c r="C60">
+        <v>9.23</v>
+      </c>
+      <c r="D60">
+        <v>8.56</v>
+      </c>
+      <c r="E60">
+        <v>8.6</v>
+      </c>
+      <c r="F60">
+        <v>8.19</v>
+      </c>
+      <c r="G60">
+        <v>9.23</v>
+      </c>
+      <c r="H60">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I60">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J60">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61">
+        <v>6.54</v>
+      </c>
+      <c r="C61">
+        <v>6.85</v>
+      </c>
+      <c r="D61">
+        <v>6.67</v>
+      </c>
+      <c r="E61">
+        <v>6.53</v>
+      </c>
+      <c r="F61">
+        <v>6.81</v>
+      </c>
+      <c r="G61">
+        <v>7.7</v>
+      </c>
+      <c r="H61">
+        <v>7.83</v>
+      </c>
+      <c r="I61">
+        <v>7</v>
+      </c>
+      <c r="J61">
         <v>62.5</v>
       </c>
     </row>
